--- a/system/principle_os/ulastudy/note/memory/understand_every_address_space.xlsx
+++ b/system/principle_os/ulastudy/note/memory/understand_every_address_space.xlsx
@@ -1845,7 +1845,7 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5144613" cy="717761"/>
+    <xdr:ext cx="6067943" cy="1624997"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="51" name="文本框 50"/>
@@ -1853,8 +1853,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3970244" y="6965576"/>
-          <a:ext cx="5144613" cy="717761"/>
+          <a:off x="3954236" y="6874329"/>
+          <a:ext cx="6067943" cy="1624997"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1907,6 +1907,83 @@
               </a:solidFill>
             </a:rPr>
             <a:t>线性地址空间</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>cpu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>在没有开启分页时，实际支持的地址空间位数是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>39</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>位，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>此时的线性地址空间就是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>39</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>位</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3550,7 +3627,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/system/principle_os/ulastudy/note/memory/understand_every_address_space.xlsx
+++ b/system/principle_os/ulastudy/note/memory/understand_every_address_space.xlsx
@@ -1845,7 +1845,7 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6067943" cy="1624997"/>
+    <xdr:ext cx="6067943" cy="1937710"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="51" name="文本框 50"/>
@@ -1854,7 +1854,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3954236" y="6874329"/>
-          <a:ext cx="6067943" cy="1624997"/>
+          <a:ext cx="6067943" cy="1937710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1983,7 +1983,22 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>位</a:t>
+            <a:t>位，并且线性地址空间与</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>物理地址空间是一一对应的</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3627,7 +3642,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/system/principle_os/ulastudy/note/memory/understand_every_address_space.xlsx
+++ b/system/principle_os/ulastudy/note/memory/understand_every_address_space.xlsx
@@ -3373,6 +3373,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>29928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7579179" y="10804072"/>
+          <a:ext cx="10817678" cy="5499999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3641,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC71" sqref="AC71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
